--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>p111</t>
+          <t>p10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9000000111</v>
+        <v>9000000010</v>
       </c>
     </row>
     <row r="3">
@@ -475,11 +475,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>p565</t>
+          <t>p100</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9000000565</v>
+        <v>9000000100</v>
       </c>
     </row>
     <row r="4">
@@ -491,11 +491,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>p1019</t>
+          <t>p190</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9000001019</v>
+        <v>9000000190</v>
       </c>
     </row>
     <row r="5">
@@ -507,11 +507,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>p1473</t>
+          <t>p280</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9000001473</v>
+        <v>9000000280</v>
       </c>
     </row>
     <row r="6">
@@ -523,11 +523,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>p1927</t>
+          <t>p370</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9000001927</v>
+        <v>9000000370</v>
       </c>
     </row>
     <row r="7">
@@ -539,11 +539,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>p2381</t>
+          <t>p460</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9000002381</v>
+        <v>9000000460</v>
       </c>
     </row>
     <row r="8">
@@ -555,11 +555,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>p2835</t>
+          <t>p550</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9000002835</v>
+        <v>9000000550</v>
       </c>
     </row>
     <row r="9">
@@ -571,11 +571,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>p3289</t>
+          <t>p640</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9000003289</v>
+        <v>9000000640</v>
       </c>
     </row>
     <row r="10">
@@ -587,11 +587,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>p3743</t>
+          <t>p730</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9000003743</v>
+        <v>9000000730</v>
       </c>
     </row>
     <row r="11">
@@ -603,11 +603,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>p4197</t>
+          <t>p820</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9000004197</v>
+        <v>9000000820</v>
       </c>
     </row>
     <row r="12">
@@ -619,11 +619,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>p4651</t>
+          <t>p910</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9000004651</v>
+        <v>9000000910</v>
       </c>
     </row>
     <row r="13">
@@ -635,11 +635,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>p5105</t>
+          <t>p1000</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9000005105</v>
+        <v>9000001000</v>
       </c>
     </row>
     <row r="14">
@@ -651,11 +651,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>p5559</t>
+          <t>p1090</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9000005559</v>
+        <v>9000001090</v>
       </c>
     </row>
     <row r="15">
@@ -667,11 +667,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>p6013</t>
+          <t>p1180</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9000006013</v>
+        <v>9000001180</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>p6467</t>
+          <t>p1270</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9000006467</v>
+        <v>9000001270</v>
       </c>
     </row>
     <row r="17">
@@ -699,11 +699,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>p6921</t>
+          <t>p1360</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9000006921</v>
+        <v>9000001360</v>
       </c>
     </row>
     <row r="18">
@@ -715,11 +715,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>p7375</t>
+          <t>p1450</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9000007375</v>
+        <v>9000001450</v>
       </c>
     </row>
     <row r="19">
@@ -731,11 +731,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>p7829</t>
+          <t>p1540</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9000007829</v>
+        <v>9000001540</v>
       </c>
     </row>
     <row r="20">
@@ -747,11 +747,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>p8283</t>
+          <t>p1630</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9000008283</v>
+        <v>9000001630</v>
       </c>
     </row>
     <row r="21">
@@ -763,11 +763,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>p8737</t>
+          <t>p1720</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9000008737</v>
+        <v>9000001720</v>
       </c>
     </row>
     <row r="22">
@@ -779,11 +779,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>p9191</t>
+          <t>p1810</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9000009191</v>
+        <v>9000001810</v>
       </c>
     </row>
     <row r="23">
@@ -795,11 +795,1435 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>p9645</t>
+          <t>p1900</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9000009645</v>
+        <v>9000001900</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>p1990</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9000001990</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>p2080</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>9000002080</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>p2170</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9000002170</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>p2260</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>9000002260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>p2350</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9000002350</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>p2440</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>9000002440</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>p2530</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9000002530</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>p2620</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9000002620</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>p2710</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9000002710</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>p2800</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9000002800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>p2890</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9000002890</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>p2980</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9000002980</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>p3070</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9000003070</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>p3160</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>9000003160</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>p3250</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9000003250</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>p3340</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>9000003340</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>p3430</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9000003430</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>p3520</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>9000003520</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>p3610</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>9000003610</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>p3700</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9000003700</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>p3790</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9000003790</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>p3880</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9000003880</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>p3970</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>9000003970</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>p4060</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>9000004060</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>p4150</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>9000004150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>p4240</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9000004240</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>p4330</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>9000004330</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>p4420</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>9000004420</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>p4510</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>9000004510</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>p4600</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>9000004600</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>p4690</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>9000004690</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>p4780</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>9000004780</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>p4870</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>9000004870</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>p4960</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>9000004960</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>p5050</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9000005050</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>p5140</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>9000005140</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>p5230</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>9000005230</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>p5320</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>9000005320</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>p5410</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>9000005410</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>p5500</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>9000005500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>p5590</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>9000005590</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>p5680</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>9000005680</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>p5770</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>9000005770</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>p5860</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>9000005860</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>p5950</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>9000005950</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>p6040</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>9000006040</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>p6130</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>9000006130</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>p6220</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>9000006220</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>p6310</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>9000006310</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>p6400</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>9000006400</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>p6490</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>9000006490</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>p6580</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>9000006580</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>p6670</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>9000006670</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>p6760</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>9000006760</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>p6850</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>9000006850</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>p6940</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>9000006940</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>p7030</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>9000007030</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>p7120</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>9000007120</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>p7210</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>9000007210</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>p7300</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>9000007300</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>p7390</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>9000007390</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>p7480</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>9000007480</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>p7570</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>9000007570</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>p7660</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>9000007660</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>p7750</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>9000007750</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>p7840</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>9000007840</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>p7930</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9000007930</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>p8020</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>9000008020</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>p8110</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>9000008110</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>p8200</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>9000008200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>p8290</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>9000008290</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>p8380</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>9000008380</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>p8470</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>9000008470</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>p8560</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>9000008560</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>p8650</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>9000008650</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>p8740</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>9000008740</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>p8830</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>9000008830</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>p8920</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>9000008920</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>p9010</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>9000009010</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>p9100</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>9000009100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>p9190</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>9000009190</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>p9280</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>9000009280</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>p9370</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>9000009370</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>p9460</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>9000009460</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>p9550</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>9000009550</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>p9640</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>9000009640</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>p9730</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>9000009730</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>p9820</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>9000009820</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>p9910</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>9000009910</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -459,11 +459,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>p10</t>
+          <t>p11</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9000000010</v>
+        <v>9000000011</v>
       </c>
     </row>
     <row r="3">
@@ -475,11 +475,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>p100</t>
+          <t>p101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9000000100</v>
+        <v>9000000101</v>
       </c>
     </row>
     <row r="4">
@@ -491,11 +491,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>p190</t>
+          <t>p191</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9000000190</v>
+        <v>9000000191</v>
       </c>
     </row>
     <row r="5">
@@ -507,11 +507,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>p280</t>
+          <t>p281</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9000000280</v>
+        <v>9000000281</v>
       </c>
     </row>
     <row r="6">
@@ -523,11 +523,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>p370</t>
+          <t>p371</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9000000370</v>
+        <v>9000000371</v>
       </c>
     </row>
     <row r="7">
@@ -539,11 +539,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>p460</t>
+          <t>p461</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9000000460</v>
+        <v>9000000461</v>
       </c>
     </row>
     <row r="8">
@@ -555,11 +555,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>p550</t>
+          <t>p551</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9000000550</v>
+        <v>9000000551</v>
       </c>
     </row>
     <row r="9">
@@ -571,11 +571,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>p640</t>
+          <t>p641</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9000000640</v>
+        <v>9000000641</v>
       </c>
     </row>
     <row r="10">
@@ -587,11 +587,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>p730</t>
+          <t>p731</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9000000730</v>
+        <v>9000000731</v>
       </c>
     </row>
     <row r="11">
@@ -603,11 +603,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>p820</t>
+          <t>p821</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9000000820</v>
+        <v>9000000821</v>
       </c>
     </row>
     <row r="12">
@@ -619,11 +619,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>p910</t>
+          <t>p911</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9000000910</v>
+        <v>9000000911</v>
       </c>
     </row>
     <row r="13">
@@ -635,11 +635,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>p1000</t>
+          <t>p1001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9000001000</v>
+        <v>9000001001</v>
       </c>
     </row>
     <row r="14">
@@ -651,11 +651,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>p1090</t>
+          <t>p1091</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9000001090</v>
+        <v>9000001091</v>
       </c>
     </row>
     <row r="15">
@@ -667,11 +667,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>p1180</t>
+          <t>p1181</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9000001180</v>
+        <v>9000001181</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>p1270</t>
+          <t>p1271</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9000001270</v>
+        <v>9000001271</v>
       </c>
     </row>
     <row r="17">
@@ -699,11 +699,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>p1360</t>
+          <t>p1361</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9000001360</v>
+        <v>9000001361</v>
       </c>
     </row>
     <row r="18">
@@ -715,11 +715,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>p1450</t>
+          <t>p1451</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9000001450</v>
+        <v>9000001451</v>
       </c>
     </row>
     <row r="19">
@@ -731,11 +731,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>p1540</t>
+          <t>p1541</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9000001540</v>
+        <v>9000001541</v>
       </c>
     </row>
     <row r="20">
@@ -747,11 +747,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>p1630</t>
+          <t>p1631</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9000001630</v>
+        <v>9000001631</v>
       </c>
     </row>
     <row r="21">
@@ -763,11 +763,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>p1720</t>
+          <t>p1721</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9000001720</v>
+        <v>9000001721</v>
       </c>
     </row>
     <row r="22">
@@ -779,11 +779,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>p1810</t>
+          <t>p1811</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9000001810</v>
+        <v>9000001811</v>
       </c>
     </row>
     <row r="23">
@@ -795,11 +795,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>p1900</t>
+          <t>p1901</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9000001900</v>
+        <v>9000001901</v>
       </c>
     </row>
     <row r="24">
@@ -811,11 +811,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>p1990</t>
+          <t>p1991</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9000001990</v>
+        <v>9000001991</v>
       </c>
     </row>
     <row r="25">
@@ -827,11 +827,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>p2080</t>
+          <t>p2081</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9000002080</v>
+        <v>9000002081</v>
       </c>
     </row>
     <row r="26">
@@ -843,11 +843,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>p2170</t>
+          <t>p2171</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9000002170</v>
+        <v>9000002171</v>
       </c>
     </row>
     <row r="27">
@@ -859,11 +859,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>p2260</t>
+          <t>p2261</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9000002260</v>
+        <v>9000002261</v>
       </c>
     </row>
     <row r="28">
@@ -875,11 +875,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>p2350</t>
+          <t>p2351</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9000002350</v>
+        <v>9000002351</v>
       </c>
     </row>
     <row r="29">
@@ -891,11 +891,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>p2440</t>
+          <t>p2441</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9000002440</v>
+        <v>9000002441</v>
       </c>
     </row>
     <row r="30">
@@ -907,11 +907,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>p2530</t>
+          <t>p2531</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9000002530</v>
+        <v>9000002531</v>
       </c>
     </row>
     <row r="31">
@@ -923,11 +923,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>p2620</t>
+          <t>p2621</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9000002620</v>
+        <v>9000002621</v>
       </c>
     </row>
     <row r="32">
@@ -939,11 +939,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>p2710</t>
+          <t>p2711</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9000002710</v>
+        <v>9000002711</v>
       </c>
     </row>
     <row r="33">
@@ -955,11 +955,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>p2800</t>
+          <t>p2801</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9000002800</v>
+        <v>9000002801</v>
       </c>
     </row>
     <row r="34">
@@ -971,11 +971,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>p2890</t>
+          <t>p2891</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9000002890</v>
+        <v>9000002891</v>
       </c>
     </row>
     <row r="35">
@@ -987,11 +987,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>p2980</t>
+          <t>p2981</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9000002980</v>
+        <v>9000002981</v>
       </c>
     </row>
     <row r="36">
@@ -1003,11 +1003,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>p3070</t>
+          <t>p3071</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9000003070</v>
+        <v>9000003071</v>
       </c>
     </row>
     <row r="37">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>p3160</t>
+          <t>p3161</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9000003160</v>
+        <v>9000003161</v>
       </c>
     </row>
     <row r="38">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>p3250</t>
+          <t>p3251</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9000003250</v>
+        <v>9000003251</v>
       </c>
     </row>
     <row r="39">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>p3340</t>
+          <t>p3341</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9000003340</v>
+        <v>9000003341</v>
       </c>
     </row>
     <row r="40">
@@ -1067,11 +1067,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>p3430</t>
+          <t>p3431</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9000003430</v>
+        <v>9000003431</v>
       </c>
     </row>
     <row r="41">
@@ -1083,11 +1083,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>p3520</t>
+          <t>p3521</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9000003520</v>
+        <v>9000003521</v>
       </c>
     </row>
     <row r="42">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>p3610</t>
+          <t>p3611</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9000003610</v>
+        <v>9000003611</v>
       </c>
     </row>
     <row r="43">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>p3700</t>
+          <t>p3701</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9000003700</v>
+        <v>9000003701</v>
       </c>
     </row>
     <row r="44">
@@ -1131,11 +1131,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>p3790</t>
+          <t>p3791</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9000003790</v>
+        <v>9000003791</v>
       </c>
     </row>
     <row r="45">
@@ -1147,11 +1147,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>p3880</t>
+          <t>p3881</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9000003880</v>
+        <v>9000003881</v>
       </c>
     </row>
     <row r="46">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>p3970</t>
+          <t>p3971</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9000003970</v>
+        <v>9000003971</v>
       </c>
     </row>
     <row r="47">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>p4060</t>
+          <t>p4061</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9000004060</v>
+        <v>9000004061</v>
       </c>
     </row>
     <row r="48">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>p4150</t>
+          <t>p4151</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9000004150</v>
+        <v>9000004151</v>
       </c>
     </row>
     <row r="49">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>p4240</t>
+          <t>p4241</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9000004240</v>
+        <v>9000004241</v>
       </c>
     </row>
     <row r="50">
@@ -1227,11 +1227,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>p4330</t>
+          <t>p4331</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>9000004330</v>
+        <v>9000004331</v>
       </c>
     </row>
     <row r="51">
@@ -1243,11 +1243,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>p4420</t>
+          <t>p4421</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9000004420</v>
+        <v>9000004421</v>
       </c>
     </row>
     <row r="52">
@@ -1259,11 +1259,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>p4510</t>
+          <t>p4511</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9000004510</v>
+        <v>9000004511</v>
       </c>
     </row>
     <row r="53">
@@ -1275,11 +1275,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>p4600</t>
+          <t>p4601</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9000004600</v>
+        <v>9000004601</v>
       </c>
     </row>
     <row r="54">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>p4690</t>
+          <t>p4691</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9000004690</v>
+        <v>9000004691</v>
       </c>
     </row>
     <row r="55">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>p4780</t>
+          <t>p4781</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9000004780</v>
+        <v>9000004781</v>
       </c>
     </row>
     <row r="56">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>p4870</t>
+          <t>p4871</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9000004870</v>
+        <v>9000004871</v>
       </c>
     </row>
     <row r="57">
@@ -1339,11 +1339,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>p4960</t>
+          <t>p4961</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9000004960</v>
+        <v>9000004961</v>
       </c>
     </row>
     <row r="58">
@@ -1355,11 +1355,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>p5050</t>
+          <t>p5051</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9000005050</v>
+        <v>9000005051</v>
       </c>
     </row>
     <row r="59">
@@ -1371,11 +1371,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>p5140</t>
+          <t>p5141</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9000005140</v>
+        <v>9000005141</v>
       </c>
     </row>
     <row r="60">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>p5230</t>
+          <t>p5231</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>9000005230</v>
+        <v>9000005231</v>
       </c>
     </row>
     <row r="61">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>p5320</t>
+          <t>p5321</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9000005320</v>
+        <v>9000005321</v>
       </c>
     </row>
     <row r="62">
@@ -1419,11 +1419,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>p5410</t>
+          <t>p5411</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9000005410</v>
+        <v>9000005411</v>
       </c>
     </row>
     <row r="63">
@@ -1435,11 +1435,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>p5500</t>
+          <t>p5501</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9000005500</v>
+        <v>9000005501</v>
       </c>
     </row>
     <row r="64">
@@ -1451,11 +1451,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>p5590</t>
+          <t>p5591</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9000005590</v>
+        <v>9000005591</v>
       </c>
     </row>
     <row r="65">
@@ -1467,11 +1467,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>p5680</t>
+          <t>p5681</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9000005680</v>
+        <v>9000005681</v>
       </c>
     </row>
     <row r="66">
@@ -1483,11 +1483,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>p5770</t>
+          <t>p5771</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9000005770</v>
+        <v>9000005771</v>
       </c>
     </row>
     <row r="67">
@@ -1499,11 +1499,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>p5860</t>
+          <t>p5861</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9000005860</v>
+        <v>9000005861</v>
       </c>
     </row>
     <row r="68">
@@ -1515,11 +1515,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>p5950</t>
+          <t>p5951</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9000005950</v>
+        <v>9000005951</v>
       </c>
     </row>
     <row r="69">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>p6040</t>
+          <t>p6041</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9000006040</v>
+        <v>9000006041</v>
       </c>
     </row>
     <row r="70">
@@ -1547,11 +1547,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>p6130</t>
+          <t>p6131</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9000006130</v>
+        <v>9000006131</v>
       </c>
     </row>
     <row r="71">
@@ -1563,11 +1563,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>p6220</t>
+          <t>p6221</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9000006220</v>
+        <v>9000006221</v>
       </c>
     </row>
     <row r="72">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>p6310</t>
+          <t>p6311</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9000006310</v>
+        <v>9000006311</v>
       </c>
     </row>
     <row r="73">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>p6400</t>
+          <t>p6401</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9000006400</v>
+        <v>9000006401</v>
       </c>
     </row>
     <row r="74">
@@ -1611,11 +1611,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>p6490</t>
+          <t>p6491</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9000006490</v>
+        <v>9000006491</v>
       </c>
     </row>
     <row r="75">
@@ -1627,11 +1627,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>p6580</t>
+          <t>p6581</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9000006580</v>
+        <v>9000006581</v>
       </c>
     </row>
     <row r="76">
@@ -1643,11 +1643,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>p6670</t>
+          <t>p6671</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9000006670</v>
+        <v>9000006671</v>
       </c>
     </row>
     <row r="77">
@@ -1659,11 +1659,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>p6760</t>
+          <t>p6761</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9000006760</v>
+        <v>9000006761</v>
       </c>
     </row>
     <row r="78">
@@ -1675,11 +1675,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>p6850</t>
+          <t>p6851</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>9000006850</v>
+        <v>9000006851</v>
       </c>
     </row>
     <row r="79">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>p6940</t>
+          <t>p6941</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>9000006940</v>
+        <v>9000006941</v>
       </c>
     </row>
     <row r="80">
@@ -1707,11 +1707,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>p7030</t>
+          <t>p7031</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9000007030</v>
+        <v>9000007031</v>
       </c>
     </row>
     <row r="81">
@@ -1723,11 +1723,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>p7120</t>
+          <t>p7121</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9000007120</v>
+        <v>9000007121</v>
       </c>
     </row>
     <row r="82">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>p7210</t>
+          <t>p7211</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9000007210</v>
+        <v>9000007211</v>
       </c>
     </row>
     <row r="83">
@@ -1755,11 +1755,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>p7300</t>
+          <t>p7301</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>9000007300</v>
+        <v>9000007301</v>
       </c>
     </row>
     <row r="84">
@@ -1771,11 +1771,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>p7390</t>
+          <t>p7391</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9000007390</v>
+        <v>9000007391</v>
       </c>
     </row>
     <row r="85">
@@ -1787,11 +1787,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>p7480</t>
+          <t>p7481</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9000007480</v>
+        <v>9000007481</v>
       </c>
     </row>
     <row r="86">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>p7570</t>
+          <t>p7571</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9000007570</v>
+        <v>9000007571</v>
       </c>
     </row>
     <row r="87">
@@ -1819,11 +1819,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>p7660</t>
+          <t>p7661</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9000007660</v>
+        <v>9000007661</v>
       </c>
     </row>
     <row r="88">
@@ -1835,11 +1835,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>p7750</t>
+          <t>p7751</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>9000007750</v>
+        <v>9000007751</v>
       </c>
     </row>
     <row r="89">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>p7840</t>
+          <t>p7841</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9000007840</v>
+        <v>9000007841</v>
       </c>
     </row>
     <row r="90">
@@ -1867,11 +1867,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>p7930</t>
+          <t>p7931</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>9000007930</v>
+        <v>9000007931</v>
       </c>
     </row>
     <row r="91">
@@ -1883,11 +1883,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>p8020</t>
+          <t>p8021</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>9000008020</v>
+        <v>9000008021</v>
       </c>
     </row>
     <row r="92">
@@ -1899,11 +1899,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>p8110</t>
+          <t>p8111</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9000008110</v>
+        <v>9000008111</v>
       </c>
     </row>
     <row r="93">
@@ -1915,11 +1915,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>p8200</t>
+          <t>p8201</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9000008200</v>
+        <v>9000008201</v>
       </c>
     </row>
     <row r="94">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>p8290</t>
+          <t>p8291</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9000008290</v>
+        <v>9000008291</v>
       </c>
     </row>
     <row r="95">
@@ -1947,11 +1947,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>p8380</t>
+          <t>p8381</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>9000008380</v>
+        <v>9000008381</v>
       </c>
     </row>
     <row r="96">
@@ -1963,11 +1963,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>p8470</t>
+          <t>p8471</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>9000008470</v>
+        <v>9000008471</v>
       </c>
     </row>
     <row r="97">
@@ -1979,11 +1979,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>p8560</t>
+          <t>p8561</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>9000008560</v>
+        <v>9000008561</v>
       </c>
     </row>
     <row r="98">
@@ -1995,11 +1995,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>p8650</t>
+          <t>p8651</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>9000008650</v>
+        <v>9000008651</v>
       </c>
     </row>
     <row r="99">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>p8740</t>
+          <t>p8741</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>9000008740</v>
+        <v>9000008741</v>
       </c>
     </row>
     <row r="100">
@@ -2027,11 +2027,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>p8830</t>
+          <t>p8831</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9000008830</v>
+        <v>9000008831</v>
       </c>
     </row>
     <row r="101">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>p8920</t>
+          <t>p8921</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9000008920</v>
+        <v>9000008921</v>
       </c>
     </row>
     <row r="102">
@@ -2059,11 +2059,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>p9010</t>
+          <t>p9011</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>9000009010</v>
+        <v>9000009011</v>
       </c>
     </row>
     <row r="103">
@@ -2075,11 +2075,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>p9100</t>
+          <t>p9101</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>9000009100</v>
+        <v>9000009101</v>
       </c>
     </row>
     <row r="104">
@@ -2091,11 +2091,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>p9190</t>
+          <t>p9191</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9000009190</v>
+        <v>9000009191</v>
       </c>
     </row>
     <row r="105">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>p9280</t>
+          <t>p9281</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>9000009280</v>
+        <v>9000009281</v>
       </c>
     </row>
     <row r="106">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>p9370</t>
+          <t>p9371</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>9000009370</v>
+        <v>9000009371</v>
       </c>
     </row>
     <row r="107">
@@ -2139,11 +2139,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>p9460</t>
+          <t>p9461</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9000009460</v>
+        <v>9000009461</v>
       </c>
     </row>
     <row r="108">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>p9550</t>
+          <t>p9551</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9000009550</v>
+        <v>9000009551</v>
       </c>
     </row>
     <row r="109">
@@ -2171,11 +2171,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>p9640</t>
+          <t>p9641</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>9000009640</v>
+        <v>9000009641</v>
       </c>
     </row>
     <row r="110">
@@ -2187,11 +2187,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>p9730</t>
+          <t>p9731</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>9000009730</v>
+        <v>9000009731</v>
       </c>
     </row>
     <row r="111">
@@ -2203,11 +2203,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>p9820</t>
+          <t>p9821</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9000009820</v>
+        <v>9000009821</v>
       </c>
     </row>
     <row r="112">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>p9910</t>
+          <t>p9911</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9000009910</v>
+        <v>9000009911</v>
       </c>
     </row>
   </sheetData>
